--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -442,6 +448,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="32.578125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,225 +470,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -703,1385 +746,1595 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>110</v>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -56,13 +56,13 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193-sexiesdecies</t>
+    <t>193-quater.1</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>193-septiesdecies</t>
+    <t>193-quinquies.1</t>
   </si>
   <si>
     <t>194</t>
@@ -350,7 +350,7 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>193-sexiesdecies,193-septiesdecies</t>
+    <t>193-quinquies.1,193-quater.1</t>
   </si>
   <si>
     <t>Comune estero</t>
@@ -447,7 +447,7 @@
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="32.578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -448,7 +448,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193-quater.1</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>193-quinquies.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193-quater.1</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>193-quinquies.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -747,1594 +750,1594 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Richiedente</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -439,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2187,13 +2199,13 @@
         <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,7 +2219,7 @@
         <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2216,7 +2228,7 @@
         <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,7 +2242,7 @@
         <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2239,7 +2251,7 @@
         <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,16 +2265,16 @@
         <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,16 +2288,16 @@
         <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,7 +2311,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2308,7 +2320,7 @@
         <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,7 +2334,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2331,12 +2343,541 @@
         <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
   </si>
   <si>
     <t>193-quinquies.1,193-quater.1</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1187,7 +1190,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>47</v>
@@ -1279,7 +1282,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1394,7 +1397,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -1457,19 +1460,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1483,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1506,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1529,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1805,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1966,16 +1969,16 @@
         <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,16 +1992,16 @@
         <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2081,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2127,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,22 +2150,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2170,22 +2173,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2193,22 +2196,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2216,22 +2219,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2239,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2380,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2426,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2472,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2495,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2518,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2541,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2564,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2587,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2610,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2633,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2656,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2679,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2702,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2725,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2748,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2771,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2794,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2817,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2840,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2860,24 +2863,139 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,9 @@
     <t>dataComunicazione</t>
   </si>
   <si>
+    <t>193-quinquies.1,193-quater.1</t>
+  </si>
+  <si>
     <t>Tipo atto da trascrivere</t>
   </si>
   <si>
@@ -293,6 +296,30 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Unito civilmente 2</t>
   </si>
   <si>
@@ -359,9 +386,6 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>193-quinquies.1,193-quater.1</t>
-  </si>
-  <si>
     <t>comuneEstero</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -454,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -891,7 +918,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -900,7 +927,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -911,7 +938,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -920,7 +947,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -934,7 +961,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -943,7 +970,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -954,19 +981,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -977,19 +1004,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1000,19 +1027,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1023,19 +1050,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1046,19 +1073,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1069,19 +1096,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1092,19 +1119,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1115,19 +1142,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1138,19 +1165,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1161,19 +1188,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1184,19 +1211,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1207,19 +1234,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1230,19 +1257,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1253,19 +1280,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1276,19 +1303,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1299,19 +1326,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1322,19 +1349,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1345,19 +1372,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1368,19 +1395,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1391,19 +1418,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1414,19 +1441,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1464,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1556,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1579,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1602,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1648,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1671,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1832,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1855,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1878,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1901,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1924,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1947,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1970,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1993,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,19 +2016,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2039,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2085,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2108,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2131,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,22 +2223,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2219,22 +2246,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2242,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2338,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,22 +2361,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2357,19 +2384,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,22 +2407,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2403,22 +2430,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2426,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2683,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2729,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2752,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2821,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2844,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2867,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2890,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2913,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2936,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2959,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2982,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2978,24 +3005,208 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -1033,7 +1033,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>48</v>
@@ -1654,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>103</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,7 +119,52 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati trascrizione</t>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -170,6 +215,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -218,19 +269,16 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -384,9 +432,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -481,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
@@ -927,7 +972,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -938,16 +983,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -961,16 +1006,16 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -981,19 +1026,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1004,19 +1049,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1027,19 +1072,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1050,19 +1095,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1073,22 +1118,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>28</v>
@@ -1096,19 +1141,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1119,19 +1164,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1142,7 +1187,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
@@ -1151,10 +1196,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1165,19 +1210,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1188,19 +1233,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1211,19 +1256,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1234,19 +1279,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1257,19 +1302,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1280,19 +1325,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1303,19 +1348,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1326,19 +1371,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1349,19 +1394,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1372,19 +1417,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1395,16 +1440,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1418,16 +1463,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>87</v>
@@ -1441,7 +1486,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>88</v>
@@ -1450,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1464,7 +1509,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>90</v>
@@ -1473,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1487,7 +1532,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
@@ -1496,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>93</v>
@@ -1510,7 +1555,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>94</v>
@@ -1519,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1533,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>96</v>
@@ -1542,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1556,7 +1601,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>98</v>
@@ -1565,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>99</v>
@@ -1579,7 +1624,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>100</v>
@@ -1588,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>101</v>
@@ -1602,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1694,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1970,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1993,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2361,22 +2406,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2384,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2407,22 +2452,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2430,22 +2475,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2453,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2568,22 +2613,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2591,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2614,22 +2659,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2637,22 +2682,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2660,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2959,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2982,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3211,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3189,24 +3234,254 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,6 +284,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato di residenza</t>
   </si>
   <si>
@@ -456,6 +462,9 @@
   </si>
   <si>
     <t>evento.trascrizioneUnioneCivile.autoritaMittente</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia Ente</t>
@@ -526,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -940,7 +949,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1515,7 +1524,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1538,7 +1547,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1676,7 +1685,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>63</v>
@@ -1745,7 +1754,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>63</v>
@@ -1831,19 +1840,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1863,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1886,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1909,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1932,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1955,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1978,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +2001,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2024,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2047,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2070,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2093,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2139,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2162,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2185,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2208,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2231,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2254,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2277,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2300,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2323,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2346,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2369,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2392,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2415,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2438,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2461,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,16 +2487,16 @@
         <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2501,16 +2510,16 @@
         <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2530,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2553,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2576,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2599,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,22 +2622,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2636,19 +2645,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,22 +2668,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2682,22 +2691,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2705,22 +2714,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2728,22 +2737,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2751,19 +2760,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2783,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2806,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2829,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2852,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2898,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2921,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2967,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2990,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3013,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3036,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3059,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3082,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3105,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3128,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3151,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3197,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3220,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3243,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3266,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3289,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3312,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3335,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,140 +3358,209 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>28</v>
+      <c r="B129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -3525,7 +3525,7 @@
         <v>153</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>149</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1708,7 +1714,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>63</v>
@@ -1777,7 +1783,7 @@
         <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>63</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,16 +2562,16 @@
         <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2668,22 +2674,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2714,22 +2720,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2737,22 +2743,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2760,22 +2766,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2783,22 +2789,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3249,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3358,209 +3364,278 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>150</v>
+      <c r="B132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -386,6 +386,87 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
+  </si>
+  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -468,9 +549,6 @@
   </si>
   <si>
     <t>evento.trascrizioneUnioneCivile.autoritaMittente</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia Ente</t>
@@ -541,17 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2588,7 +2666,7 @@
         <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>126</v>
@@ -2600,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
@@ -2608,22 +2686,22 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
@@ -2631,22 +2709,22 @@
         <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
@@ -2654,22 +2732,22 @@
         <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
@@ -2677,22 +2755,22 @@
         <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
@@ -2700,7 +2778,7 @@
         <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -2709,13 +2787,13 @@
         <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
@@ -2735,10 +2813,10 @@
         <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
@@ -2755,13 +2833,13 @@
         <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
@@ -2769,7 +2847,7 @@
         <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
@@ -2778,13 +2856,13 @@
         <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
@@ -2792,7 +2870,7 @@
         <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -2801,18 +2879,18 @@
         <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>145</v>
@@ -2821,332 +2899,332 @@
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3235,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3258,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3281,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3304,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3327,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3272,22 +3350,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3295,19 +3373,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3318,22 +3396,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3341,22 +3419,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3364,19 +3442,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3387,19 +3465,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3488,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3433,209 +3511,761 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>152</v>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -619,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2016,19 +2022,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2114,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2663,22 +2669,22 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
@@ -2686,528 +2692,528 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
@@ -3215,22 +3221,22 @@
         <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
@@ -3238,39 +3244,39 @@
         <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3310,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3350,22 +3356,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3396,22 +3402,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3419,22 +3425,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3442,22 +3448,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3465,22 +3471,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3517,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3563,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3580,19 +3586,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3603,19 +3609,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3626,19 +3632,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3649,19 +3655,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3672,19 +3678,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3695,19 +3701,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3718,19 +3724,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3741,19 +3747,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3764,19 +3770,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3787,19 +3793,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3810,19 +3816,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3833,19 +3839,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3856,19 +3862,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3879,19 +3885,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3902,19 +3908,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3925,19 +3931,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3948,19 +3954,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3971,19 +3977,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3994,19 +4000,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4017,19 +4023,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4040,19 +4046,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4063,209 +4069,255 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>128</v>
+      <c r="B159" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,12 +378,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -625,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1976,19 +1970,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1999,19 +1993,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2039,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2062,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2085,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2108,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2131,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2177,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2246,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2269,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2292,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2315,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2338,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2361,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2384,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2407,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2430,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2453,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2476,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2499,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2522,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2545,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2568,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2591,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2614,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2637,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2669,22 +2663,22 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
@@ -2692,528 +2686,528 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
@@ -3221,22 +3215,22 @@
         <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
@@ -3244,39 +3238,39 @@
         <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3281,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3304,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3327,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3356,22 +3350,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3379,19 +3373,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3402,22 +3396,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3425,22 +3419,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3448,22 +3442,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3471,22 +3465,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3494,19 +3488,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3511,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3534,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3603,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3626,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3649,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3672,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3695,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3724,19 +3718,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3741,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3764,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3793,19 +3787,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3816,19 +3810,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3839,19 +3833,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3862,19 +3856,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3885,19 +3879,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3908,19 +3902,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3931,19 +3925,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3954,19 +3948,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3977,19 +3971,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4000,19 +3994,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4023,19 +4017,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4046,19 +4040,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4069,255 +4063,209 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+    <t>Atto di costituzione e traduzione</t>
+  </si>
+  <si>
+    <t>Traduzione dell'atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Formula</t>
   </si>
   <si>
     <t>193-quater.1</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>193-quinquies.1</t>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -780,13 +780,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -826,13 +826,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -872,13 +872,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1039,7 +1039,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1062,7 +1062,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -1085,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1108,7 +1108,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1131,7 +1131,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1154,7 +1154,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1177,7 +1177,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1223,7 +1223,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>52</v>
@@ -1292,7 +1292,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>63</v>
@@ -1338,7 +1338,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>63</v>
@@ -1453,7 +1453,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -1476,7 +1476,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>63</v>
@@ -1499,7 +1499,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>63</v>
@@ -1522,7 +1522,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>63</v>
@@ -1545,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>63</v>
@@ -1614,7 +1614,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1637,7 +1637,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1660,7 +1660,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>63</v>
@@ -1683,7 +1683,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>63</v>
@@ -1706,7 +1706,7 @@
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>63</v>
@@ -1729,7 +1729,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>63</v>
@@ -1752,7 +1752,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>63</v>
@@ -1775,7 +1775,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>63</v>
@@ -1798,7 +1798,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>63</v>
@@ -1890,7 +1890,7 @@
         <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>63</v>
@@ -1913,7 +1913,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>63</v>
@@ -1936,7 +1936,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>63</v>
@@ -1959,7 +1959,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>63</v>
@@ -1982,7 +1982,7 @@
         <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>63</v>
@@ -2005,7 +2005,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>125</v>
@@ -2051,7 +2051,7 @@
         <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>125</v>
@@ -2166,7 +2166,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>125</v>
@@ -2189,7 +2189,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>125</v>
@@ -2212,7 +2212,7 @@
         <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>125</v>
@@ -2235,7 +2235,7 @@
         <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>125</v>
@@ -2258,7 +2258,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>125</v>
@@ -2327,7 +2327,7 @@
         <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>125</v>
@@ -2350,7 +2350,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>125</v>
@@ -2373,7 +2373,7 @@
         <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>125</v>
@@ -2396,7 +2396,7 @@
         <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>125</v>
@@ -2419,7 +2419,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>125</v>
@@ -2442,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>125</v>
@@ -2465,7 +2465,7 @@
         <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>125</v>
@@ -2488,7 +2488,7 @@
         <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>125</v>
@@ -2511,7 +2511,7 @@
         <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>125</v>
@@ -2603,7 +2603,7 @@
         <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>125</v>
@@ -2626,7 +2626,7 @@
         <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>125</v>
@@ -2649,7 +2649,7 @@
         <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>125</v>
@@ -2672,7 +2672,7 @@
         <v>120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>125</v>
@@ -2695,7 +2695,7 @@
         <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>125</v>
@@ -2718,7 +2718,7 @@
         <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>128</v>
@@ -2741,7 +2741,7 @@
         <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>128</v>
@@ -2764,7 +2764,7 @@
         <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>128</v>
@@ -2787,7 +2787,7 @@
         <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>128</v>
@@ -2810,7 +2810,7 @@
         <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>128</v>
@@ -2833,7 +2833,7 @@
         <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>128</v>
@@ -2856,7 +2856,7 @@
         <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>128</v>
@@ -2879,7 +2879,7 @@
         <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>128</v>
@@ -2902,7 +2902,7 @@
         <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>128</v>
@@ -2925,7 +2925,7 @@
         <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>128</v>
@@ -2948,7 +2948,7 @@
         <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>128</v>
@@ -2971,7 +2971,7 @@
         <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>128</v>
@@ -2994,7 +2994,7 @@
         <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>152</v>
@@ -3017,7 +3017,7 @@
         <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>152</v>
@@ -3040,7 +3040,7 @@
         <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>152</v>
@@ -3063,7 +3063,7 @@
         <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>152</v>
@@ -3086,7 +3086,7 @@
         <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>152</v>
@@ -3109,7 +3109,7 @@
         <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>152</v>
@@ -3132,7 +3132,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>152</v>
@@ -3155,7 +3155,7 @@
         <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>152</v>
@@ -3178,7 +3178,7 @@
         <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>152</v>
@@ -3201,7 +3201,7 @@
         <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>152</v>
@@ -3224,7 +3224,7 @@
         <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>152</v>
@@ -3247,7 +3247,7 @@
         <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>152</v>
@@ -3385,7 +3385,7 @@
         <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>155</v>
@@ -3408,7 +3408,7 @@
         <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>155</v>
@@ -3431,7 +3431,7 @@
         <v>169</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>155</v>
@@ -3454,7 +3454,7 @@
         <v>171</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>155</v>
@@ -3477,7 +3477,7 @@
         <v>49</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>155</v>
@@ -3500,7 +3500,7 @@
         <v>174</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>175</v>
@@ -3569,7 +3569,7 @@
         <v>67</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>175</v>
@@ -3592,7 +3592,7 @@
         <v>69</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>175</v>
@@ -3615,7 +3615,7 @@
         <v>71</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>175</v>
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>175</v>
@@ -3707,7 +3707,7 @@
         <v>79</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>175</v>
@@ -3730,7 +3730,7 @@
         <v>81</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>175</v>
@@ -3753,7 +3753,7 @@
         <v>83</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>175</v>
@@ -3776,7 +3776,7 @@
         <v>49</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>175</v>
@@ -3845,7 +3845,7 @@
         <v>90</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>175</v>
@@ -3868,7 +3868,7 @@
         <v>92</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>175</v>
@@ -3891,7 +3891,7 @@
         <v>94</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>175</v>
@@ -3914,7 +3914,7 @@
         <v>96</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>175</v>
@@ -3937,7 +3937,7 @@
         <v>98</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>175</v>
@@ -3960,7 +3960,7 @@
         <v>100</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>175</v>
@@ -3983,7 +3983,7 @@
         <v>102</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>175</v>
@@ -4006,7 +4006,7 @@
         <v>104</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>175</v>
@@ -4029,7 +4029,7 @@
         <v>106</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>175</v>
@@ -4098,7 +4098,7 @@
         <v>177</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>175</v>
@@ -4190,7 +4190,7 @@
         <v>181</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>180</v>
@@ -4213,7 +4213,7 @@
         <v>167</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>180</v>
@@ -4236,7 +4236,7 @@
         <v>182</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>180</v>
@@ -4259,7 +4259,7 @@
         <v>171</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>180</v>
@@ -4282,7 +4282,7 @@
         <v>183</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>180</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -625,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1384,7 +1396,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -1407,7 +1419,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1453,7 +1465,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -1476,7 +1488,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>63</v>
@@ -1542,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
@@ -1551,7 +1563,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1565,16 +1577,16 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1588,10 +1600,10 @@
         <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>63</v>
@@ -1614,7 +1626,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1637,7 +1649,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1821,7 +1833,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>63</v>
@@ -1844,7 +1856,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>63</v>
@@ -1890,7 +1902,7 @@
         <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>63</v>
@@ -1913,7 +1925,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>63</v>
@@ -1999,19 +2011,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2034,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2057,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2080,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2103,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2126,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2149,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2172,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2195,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2218,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2241,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2264,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2287,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2310,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2333,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2356,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2379,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2402,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2425,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2448,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2471,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2494,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2517,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2540,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2563,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2586,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2609,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2632,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2655,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2678,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2701,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2712,663 +2724,663 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3391,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3402,22 +3414,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3425,19 +3437,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3448,22 +3460,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3471,22 +3483,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3494,22 +3506,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3517,19 +3529,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3540,22 +3552,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>28</v>
@@ -3563,22 +3575,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3586,19 +3598,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3621,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3644,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3667,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3690,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3713,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3724,19 +3736,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3759,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3782,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3793,19 +3805,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3816,19 +3828,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3839,19 +3851,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3862,19 +3874,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3885,19 +3897,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3908,19 +3920,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3931,19 +3943,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3954,19 +3966,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3977,19 +3989,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4000,19 +4012,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4023,19 +4035,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4046,19 +4058,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4069,19 +4081,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4092,19 +4104,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4115,209 +4127,347 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
